--- a/Project Optimization/Results.xlsx
+++ b/Project Optimization/Results.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d77f83b570370f59/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Capstone-Project-Optimization\Project Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D28180D-99EB-4155-A28C-545AB03E672E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95DB009-908E-45DC-94DB-5E646A64614C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D10F741F-1D15-4249-8F72-BD4488AEC7DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="123">
   <si>
     <t>N</t>
   </si>
@@ -101,9 +104,6 @@
     <t>13-48</t>
   </si>
   <si>
-    <t>146,023 ms</t>
-  </si>
-  <si>
     <t>88,13 ms</t>
   </si>
   <si>
@@ -140,9 +140,6 @@
     <t>1039,88 ms</t>
   </si>
   <si>
-    <t>41113,6 ms</t>
-  </si>
-  <si>
     <t>0,999 ms</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>203,005 ms</t>
   </si>
   <si>
-    <t>404,93 ms</t>
-  </si>
-  <si>
     <t>1,0004 ms</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
     <t>6 periods, 2  days</t>
   </si>
   <si>
-    <t xml:space="preserve"> 226187,5 ms</t>
-  </si>
-  <si>
     <t>17-68</t>
   </si>
   <si>
@@ -203,9 +194,6 @@
     <t>No solution</t>
   </si>
   <si>
-    <t>41079 ms</t>
-  </si>
-  <si>
     <t>8 periods, 2 days</t>
   </si>
   <si>
@@ -221,12 +209,6 @@
     <t>22-70</t>
   </si>
   <si>
-    <t>31112 ms</t>
-  </si>
-  <si>
-    <t>40673 ms</t>
-  </si>
-  <si>
     <t>4,117 ms</t>
   </si>
   <si>
@@ -239,12 +221,6 @@
     <t>27-75</t>
   </si>
   <si>
-    <t>31608 ms</t>
-  </si>
-  <si>
-    <t>51263,71 ms</t>
-  </si>
-  <si>
     <t>6,228 ms</t>
   </si>
   <si>
@@ -257,12 +233,6 @@
     <t>22-50</t>
   </si>
   <si>
-    <t>34625,99 ms</t>
-  </si>
-  <si>
-    <t>49427,43 ms</t>
-  </si>
-  <si>
     <t>10 periods, 3 days</t>
   </si>
   <si>
@@ -272,12 +242,6 @@
     <t>4,038 ms</t>
   </si>
   <si>
-    <t>34280,58 ms</t>
-  </si>
-  <si>
-    <t>53310,6 ms</t>
-  </si>
-  <si>
     <t>4,516 ms</t>
   </si>
   <si>
@@ -290,12 +254,6 @@
     <t>25-53</t>
   </si>
   <si>
-    <t>37210,61 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57123,12 ms </t>
-  </si>
-  <si>
     <t>8,238 ms</t>
   </si>
   <si>
@@ -308,12 +266,6 @@
     <t>21-60</t>
   </si>
   <si>
-    <t>40123,12 ms</t>
-  </si>
-  <si>
-    <t>60134,21 ms</t>
-  </si>
-  <si>
     <t xml:space="preserve">11 periods, 3 days </t>
   </si>
   <si>
@@ -329,12 +281,6 @@
     <t>19 65</t>
   </si>
   <si>
-    <t>41201,5 ms</t>
-  </si>
-  <si>
-    <t>61123,42 ms</t>
-  </si>
-  <si>
     <t>19 periods, 5 days</t>
   </si>
   <si>
@@ -353,12 +299,6 @@
     <t>19-60</t>
   </si>
   <si>
-    <t>50124,56 ms</t>
-  </si>
-  <si>
-    <t>67191,54 ms</t>
-  </si>
-  <si>
     <t>36 periods, 9 days</t>
   </si>
   <si>
@@ -369,13 +309,115 @@
   </si>
   <si>
     <t>108,015 ms</t>
+  </si>
+  <si>
+    <t>30147 ms</t>
+  </si>
+  <si>
+    <t>30312 ms</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>31291 ms</t>
+  </si>
+  <si>
+    <t>Heuristic 3</t>
+  </si>
+  <si>
+    <t>2,99 ms</t>
+  </si>
+  <si>
+    <t>0,996 ms</t>
+  </si>
+  <si>
+    <t>1,01 ms</t>
+  </si>
+  <si>
+    <t>2.00 ms</t>
+  </si>
+  <si>
+    <t>4.98 ms</t>
+  </si>
+  <si>
+    <t>4.02 ms</t>
+  </si>
+  <si>
+    <t>7.98 ms</t>
+  </si>
+  <si>
+    <t>21.94 ms</t>
+  </si>
+  <si>
+    <t>80.8 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 periods, 10 days </t>
+  </si>
+  <si>
+    <t>223.4 ms</t>
+  </si>
+  <si>
+    <t>54,023 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heu 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heu 2 </t>
+  </si>
+  <si>
+    <t>Heu 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N</t>
+  </si>
+  <si>
+    <t>MIP time</t>
+  </si>
+  <si>
+    <t>CP time</t>
+  </si>
+  <si>
+    <t>BT time</t>
+  </si>
+  <si>
+    <t>32,01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34,1 </t>
+  </si>
+  <si>
+    <t>109,38</t>
+  </si>
+  <si>
+    <t>54,02</t>
+  </si>
+  <si>
+    <t>88,13</t>
+  </si>
+  <si>
+    <t>57,44</t>
+  </si>
+  <si>
+    <t>170,44</t>
+  </si>
+  <si>
+    <t>1039,88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203,01 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="174" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -397,16 +439,66 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -414,11 +506,190 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBEBECC"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFBEBECC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFE7E2F2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBEBECC"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFBEBECC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBEBECC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFE7E2F2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFBEBECC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFE7E2F2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFBEBECC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFE7E2F2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFBEBECC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBEBECC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFE7E2F2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFBEBECC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBEBECC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFBEBECC"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFE7E2F2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBEBECC"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFE7E2F2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFE7E2F2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFBEBECC"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFE7E2F2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBEBECC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFBEBECC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBEBECC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBEBECC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBEBECC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFBEBECC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBEBECC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,11 +704,144 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,6 +858,1293 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Heu 1 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.516</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2379999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.475999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F6A-4956-AEDD-67CB0D6EAE0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Heu 2 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.1539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.999000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.425000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.698999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108.015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F6A-4956-AEDD-67CB0D6EAE0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Heu 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>223.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5F6A-4956-AEDD-67CB0D6EAE0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1487477648"/>
+        <c:axId val="1487459344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1487477648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>K</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43731802274715664"/>
+              <c:y val="0.88331000291630213"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1487459344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1487459344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runiing time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1487477648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{619AC2EE-C024-C608-1942-AB283309E092}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -753,62 +2444,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB0286D-EFB3-E141-9628-3F0689C3886A}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="22.8" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="10.6640625" style="2"/>
     <col min="3" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="2"/>
+    <col min="6" max="14" width="10.6640625" style="2"/>
+    <col min="15" max="15" width="10.6640625" style="10"/>
+    <col min="16" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="7"/>
+      <c r="Q1" s="12"/>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
@@ -821,26 +2518,32 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="P2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -868,26 +2571,32 @@
       <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>9</v>
       </c>
@@ -907,34 +2616,40 @@
         <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>12</v>
       </c>
@@ -945,41 +2660,49 @@
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>16</v>
       </c>
@@ -990,41 +2713,49 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="L6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3" t="s">
-        <v>29</v>
+      <c r="N6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -1035,41 +2766,49 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="L7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="3" t="s">
-        <v>29</v>
+      <c r="N7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>50</v>
       </c>
@@ -1080,41 +2819,49 @@
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="3" t="s">
+      <c r="I8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3" t="s">
-        <v>29</v>
+      <c r="N8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>100</v>
       </c>
@@ -1125,41 +2872,49 @@
         <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="I9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="K9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="L9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3" t="s">
-        <v>29</v>
+      <c r="N9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>150</v>
       </c>
@@ -1170,41 +2925,49 @@
         <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="3" t="s">
+      <c r="L10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3" t="s">
-        <v>29</v>
+      <c r="N10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>200</v>
       </c>
@@ -1215,41 +2978,49 @@
         <v>100</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>200</v>
       </c>
@@ -1260,41 +3031,49 @@
         <v>200</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>73</v>
+        <v>50</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>200</v>
       </c>
@@ -1305,41 +3084,49 @@
         <v>500</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>78</v>
+        <v>50</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3" t="s">
-        <v>29</v>
+      <c r="M13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>200</v>
       </c>
@@ -1350,41 +3137,49 @@
         <v>1000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>84</v>
+        <v>50</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3" t="s">
-        <v>29</v>
+      <c r="M14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>200</v>
       </c>
@@ -1395,41 +3190,49 @@
         <v>2000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>90</v>
+        <v>50</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3" t="s">
-        <v>29</v>
+      <c r="J15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>200</v>
       </c>
@@ -1440,41 +3243,49 @@
         <v>5000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>97</v>
+        <v>50</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>200</v>
       </c>
@@ -1485,41 +3296,49 @@
         <v>10000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="O17" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3" t="s">
-        <v>29</v>
+      <c r="P17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1529,14 +3348,16 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1546,18 +3367,19 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1565,8 +3387,242 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E2AC86-A508-428A-971B-2CC17C99FD4A}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:5" ht="24" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="19">
+        <v>200</v>
+      </c>
+      <c r="B3" s="20">
+        <v>500</v>
+      </c>
+      <c r="C3" s="29">
+        <v>4.516</v>
+      </c>
+      <c r="D3" s="29">
+        <v>4.1539999999999999</v>
+      </c>
+      <c r="E3" s="30">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="21">
+        <v>200</v>
+      </c>
+      <c r="B4" s="22">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="31">
+        <v>8.2379999999999995</v>
+      </c>
+      <c r="D4" s="31">
+        <v>15.999000000000001</v>
+      </c>
+      <c r="E4" s="32">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="23">
+        <v>200</v>
+      </c>
+      <c r="B5" s="24">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="33">
+        <v>6.7919999999999998</v>
+      </c>
+      <c r="D5" s="33">
+        <v>10.425000000000001</v>
+      </c>
+      <c r="E5" s="34">
+        <v>21.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="21">
+        <v>200</v>
+      </c>
+      <c r="B6" s="22">
+        <v>5000</v>
+      </c>
+      <c r="C6" s="31">
+        <v>12.997</v>
+      </c>
+      <c r="D6" s="31">
+        <v>39.698999999999998</v>
+      </c>
+      <c r="E6" s="32">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="25">
+        <v>200</v>
+      </c>
+      <c r="B7" s="26">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="35">
+        <v>39.475999999999999</v>
+      </c>
+      <c r="D7" s="35">
+        <v>108.015</v>
+      </c>
+      <c r="E7" s="36">
+        <v>223.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718ABCA5-61F7-48E8-AE62-FB09946165D7}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="9.06640625" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="24" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="41">
+        <v>6</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="44">
+        <v>9</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="46">
+        <v>4273000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="47">
+        <v>12</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="44">
+        <v>16</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="45">
+        <v>30147</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="50">
+        <v>20</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="51">
+        <v>30312</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>